--- a/testing/results_new_dataset/LLAMA_7B/new shit/RAGAR_LLAMA_7B.xlsx
+++ b/testing/results_new_dataset/LLAMA_7B/new shit/RAGAR_LLAMA_7B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="382">
   <si>
     <t>Statement</t>
   </si>
@@ -1149,6 +1149,18 @@
   </si>
   <si>
     <t>[('Did Margaret Thatcher ever advise George H.W. Bush not to go wobbly?', [('This was no time to go wobbly.Copyright © Margaret Thatcher Foundation 2024.', 'https://www.margaretthatcher.org/document/110711'), ('As Bush mulled over what to do in response to Saddam Hussein’s invasion of Kuwait in August 1990 – to repel the Iraqi leader militarily or not – Thatcher would tell Bush in an aside at an Aspen Institute conference, “Remember George, this is no time to go wobbly.”\nAlready a subscriber?Thatcher would be out of office before Bush, but she would not go before supplying one last juicy quote.', 'https://www.csmonitor.com/USA/Foreign-Policy/2013/0408/Margaret-Thatcher-This-is-no-time-to-go-wobbly-and-other-memorable-quotes'), ('After supposedly receiving Thatcher’s spine-stiffening advice – she reportedly insisted: “Remember, George, this is no time to go wobbly” – Bush famously drew what he called a “line in the sand”.To his credit Scowcroft did not brush me off.', 'https://www.theguardian.com/us-news/2018/dec/01/george-hw-bush-american-patriot-deep-sense-duty'), ('When I then went to Ambassador Cato\'s main house where President Bush had come,  George Bush just said to me, "now Margaret, what do you think?"Thatcher:  "Margaret, what is your view?"', 'https://www.pbs.org/wgbh/pages/frontline/gulf/oral/thatcher/1.html')]), ("Did Margaret Thatcher's advice to George H.W. Bush include telling him not to go wobbly?", [('As Bush mulled over what to do in response to Saddam Hussein’s invasion of Kuwait in August 1990 – to repel the Iraqi leader militarily or not – Thatcher would tell Bush in an aside at an Aspen Institute conference, “Remember George, this is no time to go wobbly.”\nAlready a subscriber?Thatcher would be out of office before Bush, but she would not go before supplying one last juicy quote.', 'https://www.csmonitor.com/USA/Foreign-Policy/2013/0408/Margaret-Thatcher-This-is-no-time-to-go-wobbly-and-other-memorable-quotes'), ('This was no time to go wobbly.Copyright © Margaret Thatcher Foundation 2024.', 'https://www.margaretthatcher.org/document/110711'), ("'No time to go wobbly': Bush wrote that he admired Thatcher's turn of phrase when warning him to be stern with Saddam Hussein\nWhen he phoned her in the middle of the night to tell her he would wait for Soviet approval, Thatcher replied: 'Well, all right, George, but this is no time to go wobbly.'The former prime minister gave Bush a dressing-down over plans to remove U.S. troops from Europe, and also warned him not to 'go wobbly' during the build-up to the Gulf War.", 'https://www.dailymail.co.uk/news/article-3313511/Margaret-Thatcher-handbagged-George-H-W-Bush-Cold-War-diplomacy-gave-lecture-freedom.html')])]</t>
+  </si>
+  <si>
+    <t>Perry pushed for a law that lets insurance companies raise homeowners’ rates without having to justify the increase.</t>
+  </si>
+  <si>
+    <t>Back to Basics</t>
+  </si>
+  <si>
+    <t>After reviewing the provided question-answer pairs, it appears that there is no evidence to support the claim that Rick Perry pushed for a law allowing insurance companies to raise homeowners' rates without justification. In fact, one of the answers suggests that Perry signed an insurance reform bill intended to lower rising homeowner premiums, which contradicts the claim. Additionally, another answer mentions that Texans experienced price increases in their homeowners' insurance policies averaging 45 percent during the first three years of this decade, but it does not imply that Perry pushed for a law allowing unjustified rate hikes. Therefore, based on the available information, the claim is rated as false.</t>
+  </si>
+  <si>
+    <t>[("Did Texas Governor Rick Perry push for a law allowing insurance companies to raise homeowners' rates without justification?", [('I don\'t have to raise any money."The best positioning on the issue might belong to Democrat Kirk Watson, who decided early on to hammer Republican Greg Abbott for working for a law firm that represents insurance companies.', 'https://www.texastribune.org/2002/08/19/risks-hazards-and-insurance/'), ('Former Houston Mayor Bill White, a Democrat campaigning to replace Repub-lican Rick Perry as governor of Texas, says homeowners insurance rates in Texas are too high and should be more regulated.Given these facts, it is a real stretch of the imagination for anyone to say homeowners insurance rates are out of control.”\nThe White campaign says homeowners insurance policy rates have gone up almost 50 percent since Perry has been in the governor’s office.', 'https://www.insurancejournal.com/magazines/mag-features/2010/09/06/160067.htm'), ('In the setting of a new Temple home to be occupied soon, Gov. Rick Perry signed an insurance reform bill intended to lower rising homeowner ...', 'https://www.tdtnews.com/archive/article_f6ef4b10-66a3-5bc0-9d3b-d27feb7871f7.html'), ('Texas Governor Rick Perry announced recently that he favors placing the Texas homeowners insurance industry under total rate oversight by the state.Perry’s Democratic rival Tony Sanchez, who strongly supports a special legislative session to deal with insurance issues, claimed that Perry has refused to call for one because he is “bought and paid for” by the insurance industry, according to an Associated Press report.', 'https://www.insurancejournal.com/magazines/mag-features/2002/05/27/18923.htm')]), ("Did Perry's push for a law allow insurance companies to raise homeowners' rates without justification?", [('For Florida homeowners, this is resulting in fewer home insurance companies and increased premiums.Reinsurance through Citizens would allow the downgraded insurance company to meet Fannie Mae and Freddie Mac’s requirements.', 'https://www.bankrate.com/insurance/homeowners-insurance/florida-homeowners-insurance-crisis/'), ("Shortly after Hurricane Andrew, the insurance commissioner reported that\ninsurance companies could have asked for larger increases in homeowners'\ninsurance rates in every year from 1985 to 1992, and consequently that\napproved rates were less than what the DOI had calculated as permissible\n(Florida Department of Insurance, 1992).Rates were to be set at above-market\nrates to encourage placement in the voluntary market.", 'https://hazards.colorado.edu/research/working-papers/96'), ("Geller said the bill would allow insurance companies to purchase less reinsurance, a saving which he said could be reflected on homeowners' bills.Geller said the bill would allow insurance companies to reinsure for only a 1-in-50 year event – or $63 billion in damages.", 'https://www.wusf.org/politics-issues/2024-03-16/federal-legislation-could-cut-homeowners-insurance-premiums-by-a-quarter-a-new-report-says'), ('The law, F.S.Raise your deductible.', 'https://www.kin.com/blog/florida-homeowners-insurance-rates-increasing/')]), ("Did Perry's push for a law allow insurance companies to raise homeowners' rates without having to justify the increase?", [('Ability  to Combine  Coverages  \nIn the event of a claim relating to a state of emergency, an insured under a residential property insurance policy shall be permitted to combine payments for claims for losses up to the policy limits for the primary dwelling and other structures, for any of the covered expenses reasonably necessary to rebuild or replace the damaged or destroyed dwelling, if the policy limits for coverage to rebuild or replace the primary dwelling are insufficient (Cal.Payment  of Contents  Without  Inventory  \nIn the event of a covered total loss of a primary dwelling under a residential property insurance policy resulting from a state of emergency, if the residence was furnished at the time of the loss :  \n \n(1) The insurer shall offer a payment under the contents (personal property) \ncoverage in an amount no less than 30 percent of the policy limit applicable to the covered dwelling   2024  Annual Notice  \nPage 6 \nJanuary  5, 2024  \n \n \n  structure, up to a maximum of two hundred fifty thousand dollars ($250,000), \nwithout requiring the insured to file an itemized claim.', 'https://www.insurance.ca.gov/0200-industry/0120-notices/upload/Annual_Notice-Significant_California_Laws_Pertaining_to_Residential_Property_Insurance_Policies-Declared_State_of_Emergency.pdf'), ("208) This section requires the VA to use surplus earnings from the National Service Life Insurance Fund, the Veterans' Special Life Insurance Fund, and the United States Government Life Insurance Fund to reimburse the General Operating Expenses--Veterans Benefits Administration and Information Technology Systems accounts for the costs to administer the insurance programs.208) This section requires the VA to use surplus earnings from the National Service Life Insurance Fund, the Veterans' Special Life Insurance Fund, and the United States Government Life Insurance Fund to reimburse the General Operating Expenses--Veterans Benefits Administration and Information Technology Systems accounts for the costs to administer the insurance programs.", 'https://www.congress.gov/bill/117th-congress/house-bill/2617'), ("Shortly after Hurricane Andrew, the insurance commissioner reported that\ninsurance companies could have asked for larger increases in homeowners'\ninsurance rates in every year from 1985 to 1992, and consequently that\napproved rates were less than what the DOI had calculated as permissible\n(Florida Department of Insurance, 1992).Rates were to be set at above-market\nrates to encourage placement in the voluntary market.", 'https://hazards.colorado.edu/research/working-papers/96'), ("INTRODUCTION. Texans experienced price increases in their homeown- ers' insurance policies averaging 45 percent during the first three years of this decade.", 'https://www.texaspolicy.com/wp-content/uploads/2018/08/2005-05-homeowners.pdf')]), ("Did Perry's push for a law allow insurance companies to raise homeowners' rates without having to justify the increase?", [('Under federal law, the Fair Credit Reporting Act, states insurance companies have a "permissible purpose" to \nlook at your cr edit information without your permission.Why did my insurance company only pay part of \nmy claim for my loss?', 'https://oci.wi.gov/Documents/Consumers/PI-232.pdf'), ("208) This section requires the VA to use surplus earnings from the National Service Life Insurance Fund, the Veterans' Special Life Insurance Fund, and the United States Government Life Insurance Fund to reimburse the General Operating Expenses--Veterans Benefits Administration and Information Technology Systems accounts for the costs to administer the insurance programs.208) This section requires the VA to use surplus earnings from the National Service Life Insurance Fund, the Veterans' Special Life Insurance Fund, and the United States Government Life Insurance Fund to reimburse the General Operating Expenses--Veterans Benefits Administration and Information Technology Systems accounts for the costs to administer the insurance programs.", 'https://www.congress.gov/bill/117th-congress/house-bill/2617'), ("Shortly after Hurricane Andrew, the insurance commissioner reported that\ninsurance companies could have asked for larger increases in homeowners'\ninsurance rates in every year from 1985 to 1992, and consequently that\napproved rates were less than what the DOI had calculated as permissible\n(Florida Department of Insurance, 1992).Rates were to be set at above-market\nrates to encourage placement in the voluntary market.", 'https://hazards.colorado.edu/research/working-papers/96'), ("INTRODUCTION. Texans experienced price increases in their homeown- ers' insurance policies averaging 45 percent during the first three years of this decade.", 'https://www.texaspolicy.com/wp-content/uploads/2018/08/2005-05-homeowners.pdf')])]</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1533,7 +1545,7 @@
     <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3526,12 +3538,24 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="A101" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>381</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
